--- a/Data/Data dictionary KD2.xlsx
+++ b/Data/Data dictionary KD2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t>p.sus</t>
   </si>
@@ -196,9 +196,6 @@
     <t>param$POP * (param$RR * param$RRADJUST)</t>
   </si>
   <si>
-    <t>(param$POP * param$TSTSP) + (param$POP * (1 - param$TSTSP) * (1 - param$ATTEND)) + (param$POP * (1 - param$TSTSP) * param$ATTEND * (1 - param$BEGINTREAT)) + ((param$POP * (1 - param$TSTSP) * param$ATTEND * param$BEGINTREAT) - (param$POP * (1 - param$TSTSP) * param$ATTEND * param$BEGINTREAT * param$SAE) - (param$POP * (1 - param$TSTSP) * param$ATTEND * param$BEGINTREAT * param$TREATR))</t>
-  </si>
-  <si>
     <t>param$POP * (1 - param$TSTSP) * param$ATTEND * param$BEGINTREAT * param$SAE</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
   </si>
   <si>
     <t>(param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR</t>
-  </si>
-  <si>
-    <t>(param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * (1-param$TSTSN) + (param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * (1 - param$ATTEND) + (param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN  * param$ATTEND * (1 - param$BEGINTREAT) + (param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT - (param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$SAE - (param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR</t>
   </si>
   <si>
     <t>(param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$SAE</t>
@@ -729,10 +723,10 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,13 +805,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -987,14 +981,14 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>44</v>
+      <c r="I5" s="6">
+        <v>0</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>46</v>
+      <c r="K5" s="6">
+        <v>0</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -1091,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -1615,7 +1609,7 @@
       </c>
       <c r="D19" s="6" t="str">
         <f>"quote("&amp;D2&amp;"),"</f>
-        <v>quote((param$POP * param$TSTSP) + (param$POP * (1 - param$TSTSP) * (1 - param$ATTEND)) + (param$POP * (1 - param$TSTSP) * param$ATTEND * (1 - param$BEGINTREAT)) + ((param$POP * (1 - param$TSTSP) * param$ATTEND * param$BEGINTREAT) - (param$POP * (1 - param$TSTSP) * param$ATTEND * param$BEGINTREAT * param$SAE) - (param$POP * (1 - param$TSTSP) * param$ATTEND * param$BEGINTREAT * param$TREATR))),</v>
+        <v>quote(CMP),</v>
       </c>
       <c r="E19" s="6" t="str">
         <f>"quote("&amp;E2&amp;"),"</f>
@@ -1764,7 +1758,7 @@
         <v>0,</v>
       </c>
       <c r="I21" s="6" t="str">
-        <f t="shared" ref="I21:P21" si="6">I4&amp;","</f>
+        <f t="shared" ref="I21:P22" si="6">I4&amp;","</f>
         <v>0,</v>
       </c>
       <c r="J21" s="6" t="str">
@@ -1829,19 +1823,19 @@
         <v>0,</v>
       </c>
       <c r="I22" s="6" t="str">
-        <f>"quote("&amp;I5&amp;"),"</f>
-        <v>quote(CMP),</v>
+        <f t="shared" si="6"/>
+        <v>0,</v>
       </c>
       <c r="J22" s="6" t="str">
-        <f t="shared" ref="I22:P22" si="7">J5&amp;","</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="K22" s="6" t="str">
-        <f>"quote("&amp;K5&amp;"),"</f>
-        <v>quote(param$SAEMR),</v>
+        <f t="shared" si="6"/>
+        <v>0,</v>
       </c>
       <c r="L22" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I22:P22" si="7">L5&amp;","</f>
         <v>0,</v>
       </c>
       <c r="M22" s="6" t="str">
@@ -1962,7 +1956,7 @@
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>quote((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * (1-param$TSTSN) + (param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * (1 - param$ATTEND) + (param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN  * param$ATTEND * (1 - param$BEGINTREAT) + (param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT - (param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$SAE - (param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR),</v>
+        <v>quote(CMP),</v>
       </c>
       <c r="J24" s="6" t="str">
         <f t="shared" si="5"/>
@@ -2055,8 +2049,8 @@
         <v>quote(param$MR),</v>
       </c>
       <c r="P25" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>param$EMIGRATE,</v>
+        <f t="shared" si="5"/>
+        <v>quote(param$EMIGRATE),</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="4">

--- a/Data/Data dictionary KD2.xlsx
+++ b/Data/Data dictionary KD2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
   <si>
     <t>p.sus</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP)</t>
+  </si>
+  <si>
+    <t>((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * (1-param$TSTSN)) + ((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * (1 - param$ATTEND)) + ((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * (1 - param$BEGINTREAT)) +  (((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT) - ((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$SAE) - ((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))</t>
+  </si>
+  <si>
+    <t>param$POP * param$TSTSP + (param$POP * (1-param$TSTSP) * (1 - param$ATTEND)) + (param$POP * (1-param$TSTSP) * param$ATTEND * (1 - param$BEGINTREAT)) + (param$POP * (1-param$TSTSP) * param$ATTEND * param$BEGINTREAT) -  (param$POP * (1-param$TSTSP) * param$ATTEND * param$BEGINTREAT * param$SAE) - (param$POP * (1-param$TSTSP) * param$ATTEND * param$BEGINTREAT * param$TREATR)</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -723,10 +729,10 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +740,7 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -808,7 +814,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>59</v>
@@ -1088,7 +1094,7 @@
         <v>61</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>62</v>
@@ -1609,14 +1615,14 @@
       </c>
       <c r="D19" s="6" t="str">
         <f>"quote("&amp;D2&amp;"),"</f>
-        <v>quote(CMP),</v>
+        <v>quote(param$POP * param$TSTSP + (param$POP * (1-param$TSTSP) * (1 - param$ATTEND)) + (param$POP * (1-param$TSTSP) * param$ATTEND * (1 - param$BEGINTREAT)) + (param$POP * (1-param$TSTSP) * param$ATTEND * param$BEGINTREAT) -  (param$POP * (1-param$TSTSP) * param$ATTEND * param$BEGINTREAT * param$SAE) - (param$POP * (1-param$TSTSP) * param$ATTEND * param$BEGINTREAT * param$TREATR)),</v>
       </c>
       <c r="E19" s="6" t="str">
         <f>"quote("&amp;E2&amp;"),"</f>
         <v>quote(param$POP * (1 - param$TSTSP) * param$ATTEND * param$BEGINTREAT * param$SAE),</v>
       </c>
       <c r="F19" s="6" t="str">
-        <f t="shared" ref="C19:I19" si="0">F2&amp;","</f>
+        <f t="shared" ref="F19:H19" si="0">F2&amp;","</f>
         <v>0,</v>
       </c>
       <c r="G19" s="6" t="str">
@@ -1665,7 +1671,7 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="str">
-        <f t="shared" ref="B20:I33" si="2">B3&amp;","</f>
+        <f t="shared" ref="B20:H33" si="2">B3&amp;","</f>
         <v>0,</v>
       </c>
       <c r="C20" s="6" t="str">
@@ -1693,7 +1699,7 @@
         <v>0,</v>
       </c>
       <c r="I20" s="6" t="str">
-        <f t="shared" ref="I20:P20" si="3">I3&amp;","</f>
+        <f t="shared" ref="I20:N20" si="3">I3&amp;","</f>
         <v>0,</v>
       </c>
       <c r="J20" s="6" t="str">
@@ -1758,7 +1764,7 @@
         <v>0,</v>
       </c>
       <c r="I21" s="6" t="str">
-        <f t="shared" ref="I21:P22" si="6">I4&amp;","</f>
+        <f t="shared" ref="I21:N22" si="6">I4&amp;","</f>
         <v>0,</v>
       </c>
       <c r="J21" s="6" t="str">
@@ -1835,7 +1841,7 @@
         <v>0,</v>
       </c>
       <c r="L22" s="6" t="str">
-        <f t="shared" ref="I22:P22" si="7">L5&amp;","</f>
+        <f t="shared" ref="L22:N22" si="7">L5&amp;","</f>
         <v>0,</v>
       </c>
       <c r="M22" s="6" t="str">
@@ -1956,7 +1962,7 @@
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>quote(CMP),</v>
+        <v>quote(((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * (1-param$TSTSN)) + ((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * (1 - param$ATTEND)) + ((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * (1 - param$BEGINTREAT)) +  (((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT) - ((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$SAE) - ((param$POP - (param$POP * param$RR * param$RRADJUST * ((param$POP - (param$POP * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))/param$POP))) * param$TSTSN * param$ATTEND * param$BEGINTREAT * param$TREATR))),</v>
       </c>
       <c r="J24" s="6" t="str">
         <f t="shared" si="5"/>
@@ -2025,7 +2031,7 @@
         <v>quote(0),</v>
       </c>
       <c r="J25" s="6" t="str">
-        <f t="shared" ref="I25:P25" si="12">J8&amp;","</f>
+        <f t="shared" ref="J25:N25" si="12">J8&amp;","</f>
         <v>0,</v>
       </c>
       <c r="K25" s="6" t="str">
@@ -2091,7 +2097,7 @@
         <v>quote(CMP),</v>
       </c>
       <c r="J26" s="6" t="str">
-        <f t="shared" ref="I26:P26" si="14">J9&amp;","</f>
+        <f t="shared" ref="J26:N26" si="14">J9&amp;","</f>
         <v>0,</v>
       </c>
       <c r="K26" s="6" t="str">
@@ -2157,7 +2163,7 @@
         <v>quote(CMP),</v>
       </c>
       <c r="J27" s="6" t="str">
-        <f t="shared" ref="I27:P27" si="17">J10&amp;","</f>
+        <f t="shared" ref="J27:O27" si="17">J10&amp;","</f>
         <v>0,</v>
       </c>
       <c r="K27" s="6" t="str">
@@ -2351,7 +2357,7 @@
         <v>0,</v>
       </c>
       <c r="I30" s="6" t="str">
-        <f t="shared" ref="I30:P30" si="20">I13&amp;","</f>
+        <f t="shared" ref="I30:N30" si="20">I13&amp;","</f>
         <v>0,</v>
       </c>
       <c r="J30" s="6" t="str">
@@ -2600,63 +2606,63 @@
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
-        <f>CHAR(34)&amp;B1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="B35:P35" si="25">CHAR(34)&amp;B1&amp;CHAR(34)&amp;","</f>
         <v>"p.sus",</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>CHAR(34)&amp;C1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.sus.tc",</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f>CHAR(34)&amp;D1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.sus.nt",</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f>CHAR(34)&amp;E1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.sus.sae",</v>
       </c>
       <c r="F35" s="2" t="str">
-        <f>CHAR(34)&amp;F1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.sus.sae.death",</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f>CHAR(34)&amp;G1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.ltbi",</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f>CHAR(34)&amp;H1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.ltbi.tc",</v>
       </c>
       <c r="I35" s="2" t="str">
-        <f>CHAR(34)&amp;I1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.ltbi.nt",</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f>CHAR(34)&amp;J1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.ltbi.sae",</v>
       </c>
       <c r="K35" s="2" t="str">
-        <f>CHAR(34)&amp;K1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.ltbi.sae.death",</v>
       </c>
       <c r="L35" s="2" t="str">
-        <f>CHAR(34)&amp;L1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.tb",</v>
       </c>
       <c r="M35" s="2" t="str">
-        <f>CHAR(34)&amp;M1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.tbr",</v>
       </c>
       <c r="N35" s="2" t="str">
-        <f>CHAR(34)&amp;N1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.tb.death",</v>
       </c>
       <c r="O35" s="2" t="str">
-        <f>CHAR(34)&amp;O1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.death",</v>
       </c>
       <c r="P35" s="2" t="str">
-        <f>CHAR(34)&amp;P1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"p.emigrate",</v>
       </c>
     </row>
@@ -3623,7 +3629,7 @@
         <v>0,</v>
       </c>
       <c r="C19" s="5" t="str">
-        <f t="shared" ref="C19:D19" si="0">C2&amp;","</f>
+        <f t="shared" ref="C19" si="0">C2&amp;","</f>
         <v>0,</v>
       </c>
       <c r="D19" s="5" t="str">
@@ -3801,7 +3807,7 @@
         <v>0,</v>
       </c>
       <c r="O21" s="5" t="str">
-        <f t="shared" ref="E21:P21" si="3">"quote("&amp;O4&amp;"),"</f>
+        <f t="shared" ref="O21:P21" si="3">"quote("&amp;O4&amp;"),"</f>
         <v>quote(param$MR),</v>
       </c>
       <c r="P21" s="5" t="str">
@@ -4086,7 +4092,7 @@
         <v>0,</v>
       </c>
       <c r="E26" s="5" t="str">
-        <f t="shared" ref="E26:P26" si="8">E9&amp;","</f>
+        <f t="shared" ref="E26:N26" si="8">E9&amp;","</f>
         <v>0,</v>
       </c>
       <c r="F26" s="5" t="str">
@@ -4346,7 +4352,7 @@
         <v>0,</v>
       </c>
       <c r="E30" s="5" t="str">
-        <f t="shared" ref="E30:P30" si="12">E13&amp;","</f>
+        <f t="shared" ref="E30:N30" si="12">E13&amp;","</f>
         <v>0,</v>
       </c>
       <c r="F30" s="5" t="str">
@@ -4594,63 +4600,63 @@
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="str">
-        <f>CHAR(34)&amp;B1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="B35:P35" si="16">CHAR(34)&amp;B1&amp;CHAR(34)&amp;","</f>
         <v>"p.sus",</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>CHAR(34)&amp;C1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.sus.tc",</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f>CHAR(34)&amp;D1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.sus.nt",</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f>CHAR(34)&amp;E1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.sus.sae",</v>
       </c>
       <c r="F35" s="2" t="str">
-        <f>CHAR(34)&amp;F1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.sus.sae.death",</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f>CHAR(34)&amp;G1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.ltbi",</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f>CHAR(34)&amp;H1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.ltbi.tc",</v>
       </c>
       <c r="I35" s="2" t="str">
-        <f>CHAR(34)&amp;I1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.ltbi.nt",</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f>CHAR(34)&amp;J1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.ltbi.sae",</v>
       </c>
       <c r="K35" s="2" t="str">
-        <f>CHAR(34)&amp;K1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.ltbi.sae.death",</v>
       </c>
       <c r="L35" s="2" t="str">
-        <f>CHAR(34)&amp;L1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.tb",</v>
       </c>
       <c r="M35" s="2" t="str">
-        <f>CHAR(34)&amp;M1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.tbr",</v>
       </c>
       <c r="N35" s="2" t="str">
-        <f>CHAR(34)&amp;N1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.tb.death",</v>
       </c>
       <c r="O35" s="2" t="str">
-        <f>CHAR(34)&amp;O1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.death",</v>
       </c>
       <c r="P35" s="2" t="str">
-        <f>CHAR(34)&amp;P1&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"p.emigrate",</v>
       </c>
     </row>
